--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -34,13 +34,13 @@
     <t xml:space="preserve">line</t>
   </si>
   <si>
-    <t xml:space="preserve">persistResolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy instead of move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generic/rpc/srv/dsVideoPort.c</t>
+    <t xml:space="preserve">setDeviceInitializationContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPY_INSTEAD_OF_MOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entservices-softwareupdate/MaintenanceManager/MaintenanceManager.cpp </t>
   </si>
 </sst>
 </file>
@@ -339,12 +339,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.96"/>
   </cols>
@@ -359,7 +359,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -373,8 +373,8 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1650</v>
+      <c r="D2" s="1" t="n">
+        <v>1369</v>
       </c>
     </row>
   </sheetData>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -40,7 +40,13 @@
     <t xml:space="preserve">COPY_INSTEAD_OF_MOVE</t>
   </si>
   <si>
-    <t xml:space="preserve">entservices-softwareupdate/MaintenanceManager/MaintenanceManager.cpp </t>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/MaintenanceManager/MaintenanceManager.cpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenanceManagerOnBootup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setMaintenanceMode</t>
   </si>
 </sst>
 </file>
@@ -336,10 +342,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,6 +383,34 @@
         <v>1369</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2288</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,7 +380,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1369</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,7 +393,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>1515</v>
       </c>
     </row>
@@ -407,7 +407,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>2288</v>
       </c>
     </row>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,7 +394,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1515</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,7 +408,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2288</v>
+        <v>2295</v>
       </c>
     </row>
   </sheetData>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">maintenanceManagerOnBootup</t>
   </si>
   <si>
-    <t xml:space="preserve">setMaintenanceMode</t>
+    <t xml:space="preserve">FirmwareStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/FirmwareUpdate/FirmwareUpdateImplementation.cpp</t>
   </si>
 </sst>
 </file>
@@ -345,7 +348,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,10 +408,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2295</v>
+        <v>1436</v>
       </c>
     </row>
   </sheetData>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">maintenanceManagerOnBootup</t>
   </si>
   <si>
-    <t xml:space="preserve">FirmwareStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/FirmwareUpdate/FirmwareUpdateImplementation.cpp</t>
+    <t xml:space="preserve">persistResolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/persistResolution/generic/rpc/srv/dsVideoPort.c</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,7 +411,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1436</v>
+        <v>1636</v>
       </c>
     </row>
   </sheetData>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">maintenanceManagerOnBootup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persistResolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/persistResolution/generic/rpc/srv/dsVideoPort.c</t>
   </si>
 </sst>
 </file>
@@ -348,7 +342,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,18 +395,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1636</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t xml:space="preserve">maintenanceManagerOnBootup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persistResolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/generic/rpc/srv/dsVideoPort.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_dsGetEDIDBytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out_of_bounds_access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/generic/rpc/srv/dsDisplay.c</t>
   </si>
 </sst>
 </file>
@@ -53,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +98,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,6 +166,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -339,10 +364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,7 +420,32 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/generic/rpc/srv/dsDisplay.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isThunderSecurityConfigured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uninitialized variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/helpers/UtilsController.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/generic/sample/getHostEDID.cpp</t>
   </si>
 </sst>
 </file>
@@ -364,10 +379,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,6 +462,34 @@
         <v>206</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -61,13 +61,13 @@
     <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/generic/rpc/srv/dsDisplay.c</t>
   </si>
   <si>
-    <t xml:space="preserve">isThunderSecurityConfigured</t>
+    <t xml:space="preserve">flashImage</t>
   </si>
   <si>
     <t xml:space="preserve">uninitialized variable</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/helpers/UtilsController.h</t>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/FirmwareUpdate/FirmwareUpdateImplementation.cpp</t>
   </si>
   <si>
     <t xml:space="preserve">main</t>
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,12 +113,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +177,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,7 +376,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,7 +452,7 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>206</v>
       </c>
     </row>
@@ -472,8 +466,8 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>96</v>
+      <c r="D6" s="1" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +480,7 @@
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>49</v>
       </c>
     </row>

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -61,13 +61,13 @@
     <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/generic/rpc/srv/dsDisplay.c</t>
   </si>
   <si>
-    <t xml:space="preserve">flashImage</t>
+    <t xml:space="preserve">isDeviceOnline</t>
   </si>
   <si>
     <t xml:space="preserve">uninitialized variable</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/FirmwareUpdate/FirmwareUpdateImplementation.cpp</t>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/MaintenanceManager/MaintenanceManager.cpp</t>
   </si>
   <si>
     <t xml:space="preserve">main</t>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,7 +467,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>351</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/entservices-softwareupdate/MaintenanceManager/MaintenanceManager.cpp </t>
   </si>
   <si>
-    <t xml:space="preserve">maintenanceManagerOnBootup</t>
+    <t xml:space="preserve">setMaintenanceMode</t>
   </si>
   <si>
     <t xml:space="preserve">persistResolution</t>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1522</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coverity_scan1.xlsx
+++ b/coverity_scan1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">function</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/devicesettings/generic/sample/getHostEDID.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rStorageNVRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctor_dtor_leak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/rdkv-core/cov/cov-analysis-linux64-2023.6.0/bin/device/StorageManager/refactored/mgr/rdkStorageNVRAM.cpp</t>
   </si>
 </sst>
 </file>
@@ -373,10 +382,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,6 +493,20 @@
         <v>49</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
